--- a/TNR_PREJDD/PREJDD.RO.LIE.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.LIE.xlsx
@@ -294,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -315,6 +315,12 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -376,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -387,6 +393,7 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
@@ -1702,446 +1709,446 @@
       <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BC1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BD1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BE1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BF1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BI1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BK1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BL1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BM1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BN1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BO1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BP1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BR1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BS1" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>2000.0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="R2" s="10">
+      <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="11">
         <v>1000.0</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA2" s="9" t="s">
+      <c r="S2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="BB2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BB2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="BK2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS2" s="9" t="s">
+      <c r="BK2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS2" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -3592,54 +3599,54 @@
       <c r="A1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
